--- a/medicine/Enfance/Saci_Lloyd/Saci_Lloyd.xlsx
+++ b/medicine/Enfance/Saci_Lloyd/Saci_Lloyd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saci Lloyd, née le 18 décembre 1967 à Manchester au Royaume-Uni, est une écrivaine, dessinatrice et chanteuse britannique. Elle s'est fait connaître grâce à son premier livre, Carbon Diaries 2015, sorti en 2009 au Royaume-Uni.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,13 +553,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Carbon Diaries
-Carbon Diaries 2015, Pocket Jeunesse, 2012 ((en) The Carbon Diaries 2015, 2009), trad. Sylvie Denis, 328 p.  (ISBN 978-2-266-19614-7)
-Carbon Diaries 2017, Pocket Jeunesse, 2013 ((en) The Carbon Diaries 2017, 2010), trad. Sylvie Denis, 388 p.  (ISBN 978-2-266-19615-4)
-Romans indépendants
-(en) Momentum, 2011  (ISBN 978-1-4449-0081-1)
-(en) Quantum, 2013  (ISBN 978-1-4449-0082-8)
-(en) It's the End of the World as We Know It, 2015  (ISBN 978-1-4449-1668-3)</t>
+          <t>Série Carbon Diaries</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Carbon Diaries 2015, Pocket Jeunesse, 2012 ((en) The Carbon Diaries 2015, 2009), trad. Sylvie Denis, 328 p.  (ISBN 978-2-266-19614-7)
+Carbon Diaries 2017, Pocket Jeunesse, 2013 ((en) The Carbon Diaries 2017, 2010), trad. Sylvie Denis, 388 p.  (ISBN 978-2-266-19615-4)</t>
         </is>
       </c>
     </row>
@@ -570,15 +585,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Momentum, 2011  (ISBN 978-1-4449-0081-1)
+(en) Quantum, 2013  (ISBN 978-1-4449-0082-8)
+(en) It's the End of the World as We Know It, 2015  (ISBN 978-1-4449-1668-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Saci_Lloyd</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saci_Lloyd</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2009 : Costa Book Awards pour Carbon Diaries 2015
-2011 : Green Book Festival pour Carbon Diaries 2017[1]
+2011 : Green Book Festival pour Carbon Diaries 2017
 2011 : Guardian Children's Fiction Prize  pour Momentum
-2013 : Green Earth Book Awards pour Momentum[2]</t>
+2013 : Green Earth Book Awards pour Momentum</t>
         </is>
       </c>
     </row>
